--- a/WitchCSV.xlsx
+++ b/WitchCSV.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyjj\Desktop\Study\Witch\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A633A2F-4E83-44DA-94F1-25F8EAD68A39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21585" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Unit" sheetId="1" r:id="rId1"/>
+    <sheet name="Card" sheetId="3" r:id="rId2"/>
+    <sheet name="Enemy" sheetId="4" r:id="rId3"/>
+    <sheet name="Map" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +27,138 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefaps/Unit/BaseUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefaps/Cards/BaseCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefaps/Cards/TestCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefaps/Unit/NekoUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pos1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pos2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pos3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pos4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pos5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefaps/Enemies/BaseEnemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +463,371 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F80478-370E-4CAC-BD5D-61657A5065CE}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0337BB66-4CB2-4A96-9A41-1A0EB47DC0A9}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E688AE-A248-435D-A3E2-350FF2370EF4}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WitchCSV.xlsx
+++ b/WitchCSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyjj\Desktop\Study\Witch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A633A2F-4E83-44DA-94F1-25F8EAD68A39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250CD42B-42C7-4965-BAA7-C2084A3D5A52}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="21585" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,14 @@
   </si>
   <si>
     <t>Prefaps/Enemies/BaseEnemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Octopus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefaps/Enemies/OctopusEnemy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,10 +654,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0337BB66-4CB2-4A96-9A41-1A0EB47DC0A9}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -687,18 +695,30 @@
         <v>27</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E688AE-A248-435D-A3E2-350FF2370EF4}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -826,6 +846,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WitchCSV.xlsx
+++ b/WitchCSV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyjj\Desktop\Study\Witch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250CD42B-42C7-4965-BAA7-C2084A3D5A52}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E437AAC-54D7-43CA-9594-0DC9DCB366D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21585" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="840" windowWidth="21585" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,50 @@
   </si>
   <si>
     <t>Prefaps/Enemies/OctopusEnemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaveSpider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefaps/Enemies/CaveSpiderEnemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefaps/Unit/WarriorUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrawCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxRange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,15 +516,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,22 +535,31 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -531,8 +584,17 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -546,19 +608,28 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -572,16 +643,45 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -593,15 +693,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F80478-370E-4CAC-BD5D-61657A5065CE}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -611,8 +711,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -622,8 +731,17 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -633,8 +751,17 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -643,6 +770,15 @@
       </c>
       <c r="C4" t="s">
         <v>13</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -654,15 +790,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0337BB66-4CB2-4A96-9A41-1A0EB47DC0A9}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -672,8 +808,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -683,8 +828,17 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -694,8 +848,17 @@
       <c r="C3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -704,6 +867,35 @@
       </c>
       <c r="C4" t="s">
         <v>29</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -715,10 +907,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E688AE-A248-435D-A3E2-350FF2370EF4}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -887,8 +1079,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WitchCSV.xlsx
+++ b/WitchCSV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyjj\Desktop\Study\Witch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E437AAC-54D7-43CA-9594-0DC9DCB366D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1552BC90-5DC6-47C5-A340-10C2BF72CFCD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="840" windowWidth="21585" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="840" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,70 @@
   </si>
   <si>
     <t>MaxRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefaps/Cards/SlashCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefaps/Cards/RoarCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefensePosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefaps/Cards/DefensePositionCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefaps/Cards/ReadyCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefaps/Cards/ShotCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefaps/Cards/HealCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SupportShot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefaps/Cards/SupportShotCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefaps/Unit/SupporterUnit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,15 +580,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,22 +608,25 @@
         <v>32</v>
       </c>
       <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -593,8 +660,11 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -614,7 +684,7 @@
         <v>30</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -623,13 +693,16 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -649,7 +722,7 @@
         <v>25</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -658,13 +731,16 @@
         <v>2</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -682,6 +758,62 @@
       </c>
       <c r="F5">
         <v>35</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -693,10 +825,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F80478-370E-4CAC-BD5D-61657A5065CE}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -779,6 +911,146 @@
       </c>
       <c r="F4">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
